--- a/tournaments/2026-mens-world-cup.xlsx
+++ b/tournaments/2026-mens-world-cup.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE09AE2A-AC59-2D4E-9695-D7B3E14D8FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B327B9E-A731-274C-972F-050E1359F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="33880" windowHeight="19060" activeTab="5" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19740" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
     <sheet name="Matches" sheetId="1" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
     <sheet name="Colors" sheetId="9" r:id="rId4"/>
-    <sheet name="#Club" sheetId="11" r:id="rId5"/>
-    <sheet name="#Work" sheetId="12" r:id="rId6"/>
+    <sheet name="#Work" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="420">
   <si>
     <t>A1</t>
   </si>
@@ -436,381 +435,66 @@
     <t>Pasadena</t>
   </si>
   <si>
-    <t>pal</t>
-  </si>
-  <si>
-    <t>por</t>
-  </si>
-  <si>
-    <t>ahl</t>
-  </si>
-  <si>
-    <t>mia</t>
-  </si>
-  <si>
-    <t>psg</t>
-  </si>
-  <si>
     <t>Paris Saint-Germain</t>
   </si>
   <si>
-    <t>París Saint Germain</t>
-  </si>
-  <si>
-    <t>パリ・サンジェルマン</t>
-  </si>
-  <si>
-    <t>پاری سن ژرمن</t>
-  </si>
-  <si>
-    <t>atm</t>
-  </si>
-  <si>
     <t>Atlético Madrid</t>
   </si>
   <si>
-    <t>Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>アトレティコ・マドリード</t>
-  </si>
-  <si>
-    <t>اتلتیکو مادرید</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
     <t>Botafogo</t>
   </si>
   <si>
-    <t>ボタフォゴ</t>
-  </si>
-  <si>
-    <t>بوتافوگو</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>bay</t>
-  </si>
-  <si>
-    <t>akl</t>
-  </si>
-  <si>
-    <t>boc</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>slb</t>
-  </si>
-  <si>
     <t>Benfica</t>
   </si>
   <si>
-    <t>fla</t>
-  </si>
-  <si>
-    <t>est</t>
-  </si>
-  <si>
     <t>Espérance de Tunis</t>
   </si>
   <si>
-    <t>Esperanza de Túnez</t>
-  </si>
-  <si>
-    <t>Esperanza di Tunisi</t>
-  </si>
-  <si>
-    <t>エスペランス デ チュニス</t>
-  </si>
-  <si>
-    <t>اسپرانس تونس</t>
-  </si>
-  <si>
-    <t>che</t>
-  </si>
-  <si>
-    <t>leo</t>
-  </si>
-  <si>
-    <t>riv</t>
-  </si>
-  <si>
-    <t>Río de la Plata</t>
-  </si>
-  <si>
-    <t>urd</t>
-  </si>
-  <si>
     <t>Urawa Red Diamonds</t>
   </si>
   <si>
-    <t>Diamantes rojos de Urawa</t>
-  </si>
-  <si>
-    <t>Diamanti rossi Urawa</t>
-  </si>
-  <si>
-    <t>Diamants rouges d'Urawa</t>
-  </si>
-  <si>
-    <t>Rote Urawa-Diamanten</t>
-  </si>
-  <si>
-    <t>Urawa rode diamanten</t>
-  </si>
-  <si>
-    <t>浦和レッズ</t>
-  </si>
-  <si>
-    <t>الماس قرمز اوراوا</t>
-  </si>
-  <si>
-    <t>cfm</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>flu</t>
-  </si>
-  <si>
-    <t>bvb</t>
-  </si>
-  <si>
     <t>Borussia Dortmund</t>
   </si>
   <si>
-    <t>ボルシア・ドルトムント</t>
-  </si>
-  <si>
-    <t>بوروسیا دورتموند</t>
-  </si>
-  <si>
-    <t>uhd</t>
-  </si>
-  <si>
-    <t>msu</t>
-  </si>
-  <si>
-    <t>mci</t>
-  </si>
-  <si>
     <t>Manchester City</t>
   </si>
   <si>
-    <t>ciudad de manchester</t>
-  </si>
-  <si>
-    <t>Manchester-stad</t>
-  </si>
-  <si>
-    <t>マンチェスターシティ</t>
-  </si>
-  <si>
-    <t>منچستر سیتی</t>
-  </si>
-  <si>
-    <t>wac</t>
-  </si>
-  <si>
-    <t>ain</t>
-  </si>
-  <si>
-    <t>juv</t>
-  </si>
-  <si>
-    <t>rma</t>
-  </si>
-  <si>
-    <t>hil</t>
-  </si>
-  <si>
     <t>Al Hilal</t>
   </si>
   <si>
-    <t>Al-Hilal</t>
-  </si>
-  <si>
-    <t>アル・ヒラル</t>
-  </si>
-  <si>
-    <t>الهلال</t>
-  </si>
-  <si>
-    <t>pac</t>
-  </si>
-  <si>
-    <t>sal</t>
-  </si>
-  <si>
     <t>River Plate</t>
   </si>
   <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>パルメイラス</t>
-  </si>
-  <si>
-    <t>پالمیراس</t>
-  </si>
-  <si>
     <t>Porto</t>
   </si>
   <si>
-    <t>Oporto</t>
-  </si>
-  <si>
-    <t>ポルト</t>
-  </si>
-  <si>
-    <t>پورتو</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Al-Ahly</t>
-  </si>
-  <si>
-    <t>アル・アハリ</t>
-  </si>
-  <si>
-    <t>الاهلی</t>
-  </si>
-  <si>
     <t>Inter Miami</t>
   </si>
   <si>
-    <t>InterMiami</t>
-  </si>
-  <si>
-    <t>インテル・マイアミ</t>
-  </si>
-  <si>
-    <t>اینتر میامی</t>
-  </si>
-  <si>
     <t>Seattle Sounders</t>
   </si>
   <si>
-    <t>Sondas de Seattle</t>
-  </si>
-  <si>
-    <t>Sirene di Seattle</t>
-  </si>
-  <si>
-    <t>Sondeurs de Seattle</t>
-  </si>
-  <si>
-    <t>Seattle-sounders</t>
-  </si>
-  <si>
-    <t>シアトル・サウンダーズ</t>
-  </si>
-  <si>
-    <t>سیاتل ساندرز</t>
-  </si>
-  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Bayern de Múnich</t>
-  </si>
-  <si>
-    <t>Bayern Monaco</t>
-  </si>
-  <si>
-    <t>Bayern München</t>
-  </si>
-  <si>
-    <t>バイエルン・ミュンヘン</t>
-  </si>
-  <si>
-    <t>بایرن مونیخ</t>
-  </si>
-  <si>
     <t>Auckland City</t>
   </si>
   <si>
-    <t>ciudad de auckland</t>
-  </si>
-  <si>
-    <t>Città di Auckland</t>
-  </si>
-  <si>
-    <t>Ville d'Auckland</t>
-  </si>
-  <si>
-    <t>Auckland-Stadt</t>
-  </si>
-  <si>
-    <t>Auckland stad</t>
-  </si>
-  <si>
-    <t>オークランド市</t>
-  </si>
-  <si>
-    <t>شهر اوکلند</t>
-  </si>
-  <si>
-    <t>Boca junioren</t>
-  </si>
-  <si>
-    <t>ボカ・ジュニアーズ</t>
-  </si>
-  <si>
-    <t>بوکا جونیورز</t>
-  </si>
-  <si>
-    <t>ベンフィカ</t>
-  </si>
-  <si>
-    <t>بنفیکا</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
-    <t>flamenco</t>
-  </si>
-  <si>
-    <t>フラメンゴ</t>
-  </si>
-  <si>
-    <t>فلامنگو</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>チェルシー</t>
-  </si>
-  <si>
-    <t>چلسی</t>
-  </si>
-  <si>
-    <t>Rivière Plate</t>
-  </si>
-  <si>
-    <t>Rivierplaat</t>
-  </si>
-  <si>
-    <t>リバープレート</t>
-  </si>
-  <si>
-    <t>ریور پلیت</t>
-  </si>
-  <si>
     <t>Monterrey</t>
   </si>
   <si>
@@ -823,141 +507,30 @@
     <t>Inter Milan</t>
   </si>
   <si>
-    <t>Inter de Milán</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Inter Mailand</t>
-  </si>
-  <si>
-    <t>Inter Milaan</t>
-  </si>
-  <si>
-    <t>インテル・ミラノ</t>
-  </si>
-  <si>
-    <t>اینترمیلان</t>
-  </si>
-  <si>
     <t>Ulsan</t>
   </si>
   <si>
-    <t>蔚山</t>
-  </si>
-  <si>
-    <t>اولسان</t>
-  </si>
-  <si>
     <t>Mamelodi Sundowns</t>
   </si>
   <si>
-    <t>Atardecer en Mamelodi</t>
-  </si>
-  <si>
-    <t>Tramonti Mamelodi</t>
-  </si>
-  <si>
-    <t>Couchers de soleil de Mamelodi</t>
-  </si>
-  <si>
-    <t>Mamelodi-Sonnenuntergänge</t>
-  </si>
-  <si>
-    <t>Mamelodi zonsondergangen</t>
-  </si>
-  <si>
-    <t>マメロディ サンダウンズ</t>
-  </si>
-  <si>
     <t>Wydad</t>
   </si>
   <si>
-    <t>ウィダッド</t>
-  </si>
-  <si>
-    <t>ویداد</t>
-  </si>
-  <si>
     <t>Al Ain</t>
   </si>
   <si>
-    <t>Al-Ain</t>
-  </si>
-  <si>
-    <t>Al-Aïn</t>
-  </si>
-  <si>
-    <t>アル・アイン</t>
-  </si>
-  <si>
-    <t>العین</t>
-  </si>
-  <si>
     <t>Juventus</t>
   </si>
   <si>
-    <t>Juve</t>
-  </si>
-  <si>
-    <t>ユベントス</t>
-  </si>
-  <si>
-    <t>یوونتوس</t>
-  </si>
-  <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>real madrid</t>
-  </si>
-  <si>
-    <t>Réal Madrid</t>
-  </si>
-  <si>
-    <t>Echt Madrid</t>
-  </si>
-  <si>
-    <t>レアル・マドリード</t>
-  </si>
-  <si>
-    <t>رئال مادرید</t>
-  </si>
-  <si>
     <t>Pachuca</t>
   </si>
   <si>
-    <t>pachuca</t>
-  </si>
-  <si>
-    <t>パチューカ</t>
-  </si>
-  <si>
-    <t>پاچوکا</t>
-  </si>
-  <si>
     <t>Salzburg</t>
   </si>
   <si>
-    <t>Salsburgo</t>
-  </si>
-  <si>
-    <t>Salisburgo</t>
-  </si>
-  <si>
-    <t>Salzbourg</t>
-  </si>
-  <si>
-    <t>Salzburgerland</t>
-  </si>
-  <si>
-    <t>ザルツブルク</t>
-  </si>
-  <si>
-    <t>سالزبورگ</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -970,30 +543,6 @@
     <t>Fluminense</t>
   </si>
   <si>
-    <t>fluminense</t>
-  </si>
-  <si>
-    <t>フルミネンセ</t>
-  </si>
-  <si>
-    <t>فلومیننس</t>
-  </si>
-  <si>
-    <t>Leone</t>
-  </si>
-  <si>
-    <t>Léon</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>レオン</t>
-  </si>
-  <si>
-    <t>لئون</t>
-  </si>
-  <si>
     <t>away-club</t>
   </si>
   <si>
@@ -1306,15 +855,9 @@
     <t>IRN</t>
   </si>
   <si>
-    <t>WAL</t>
-  </si>
-  <si>
     <t>ARG</t>
   </si>
   <si>
-    <t>POL</t>
-  </si>
-  <si>
     <t>BEL</t>
   </si>
   <si>
@@ -1333,18 +876,12 @@
     <t>AUS</t>
   </si>
   <si>
-    <t>DEN</t>
-  </si>
-  <si>
     <t>TUN</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>CRC</t>
-  </si>
-  <si>
     <t>GER</t>
   </si>
   <si>
@@ -1354,15 +891,9 @@
     <t>BRA</t>
   </si>
   <si>
-    <t>SRB</t>
-  </si>
-  <si>
     <t>SUI</t>
   </si>
   <si>
-    <t>CMR</t>
-  </si>
-  <si>
     <t>URU</t>
   </si>
   <si>
@@ -1417,27 +948,9 @@
     <t>L4</t>
   </si>
   <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>UKR</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>HUN</t>
-  </si>
-  <si>
     <t>EGY</t>
   </si>
   <si>
@@ -1447,30 +960,12 @@
     <t>COL</t>
   </si>
   <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
     <t>SCO</t>
   </si>
   <si>
-    <t>ITA</t>
-  </si>
-  <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>MAL</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -1751,6 +1246,60 @@
   </si>
   <si>
     <t>L102</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>??D</t>
+  </si>
+  <si>
+    <t>??A</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>??C</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>??B</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>??2</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>??1</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>UZB</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,14 +1334,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1838,27 +1379,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1882,42 +1420,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -1968,21 +1470,18 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:K105" totalsRowShown="0">
   <autoFilter ref="A1:K105" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1">
-    <sortCondition ref="A1"/>
-  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
     <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2022,24 +1521,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{67FB1BCE-0386-7343-BA89-F3A876D40CE6}" name="club" displayName="club" ref="A1:I33" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I33" xr:uid="{BA8C5955-F911-B84D-96F6-FB2E611CA222}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1CF80809-59D5-0E41-94B7-20DC62F312AB}" name="key" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B947EB64-5C2B-394D-8D82-4F11121098E6}" name="en"/>
-    <tableColumn id="3" xr3:uid="{3563E293-2C65-7849-A79A-437401178D48}" name="es"/>
-    <tableColumn id="4" xr3:uid="{F533366D-F4E8-9147-9066-BEA50DE073C4}" name="it"/>
-    <tableColumn id="5" xr3:uid="{F8A43CCD-4B4F-7042-8A6B-EED4D97B7C0E}" name="fr"/>
-    <tableColumn id="6" xr3:uid="{1FFE0102-7757-704A-9C1B-09D1EFEEF51E}" name="de"/>
-    <tableColumn id="7" xr3:uid="{31C30398-EFEC-8D42-9EE8-577D2673A59E}" name="nl"/>
-    <tableColumn id="8" xr3:uid="{188AF4E9-CE32-4B45-A97C-AC0A8D8FC2B3}" name="ja"/>
-    <tableColumn id="9" xr3:uid="{A7793C96-364C-994C-A51D-AE62077AC70D}" name="fa"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BBBE1838-FD7A-DF40-95BF-30CF68A4CA84}" name="Table6" displayName="Table6" ref="A1:L64" totalsRowShown="0">
   <autoFilter ref="A1:L64" xr:uid="{BBBE1838-FD7A-DF40-95BF-30CF68A4CA84}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L64">
@@ -2056,10 +1537,10 @@
       <calculatedColumnFormula>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{124115E5-B1FC-184D-9D81-D1C46CBE1BB2}" name="home-club" dataDxfId="4">
-      <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{69B2A819-5084-CE42-A122-5F4B68D1E3B8}" name="away-club" dataDxfId="3">
-      <calculatedColumnFormula>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{B55ACCD1-E874-2840-815C-2C70AD4D5185}" name="home-seed" dataDxfId="2">
       <calculatedColumnFormula>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</calculatedColumnFormula>
@@ -2378,7 +1859,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:I21"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2428,57 +1909,57 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>343</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>345</v>
+        <v>195</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>346</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>338</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2486,36 +1967,36 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>354</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2530,28 +2011,28 @@
         <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>364</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2559,28 +2040,28 @@
         <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,28 +2069,28 @@
         <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>371</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2617,28 +2098,28 @@
         <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>377</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2646,28 +2127,28 @@
         <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>379</v>
+        <v>229</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2675,28 +2156,28 @@
         <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2733,28 +2214,28 @@
         <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>385</v>
+        <v>235</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>386</v>
+        <v>236</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>387</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2820,62 +2301,62 @@
         <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>389</v>
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>391</v>
+        <v>241</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>388</v>
+        <v>238</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>393</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>394</v>
+        <v>244</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>396</v>
+        <v>246</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>395</v>
+        <v>245</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>398</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>399</v>
+        <v>249</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
@@ -2904,89 +2385,89 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>402</v>
+        <v>252</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>403</v>
+        <v>253</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>406</v>
+        <v>256</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>412</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3003,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3392,10 +2873,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="D18" s="1">
         <v>46189</v>
@@ -3413,10 +2894,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1">
         <v>46189</v>
@@ -3434,10 +2915,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="D20" s="1">
         <v>46189</v>
@@ -3455,10 +2936,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="D21" s="1">
         <v>46189</v>
@@ -3476,10 +2957,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="D22" s="1">
         <v>46190</v>
@@ -3497,10 +2978,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1">
         <v>46190</v>
@@ -3518,10 +2999,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="D24" s="1">
         <v>46190</v>
@@ -3539,10 +3020,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="D25" s="1">
         <v>46190</v>
@@ -3896,10 +3377,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="D42" s="1">
         <v>46195</v>
@@ -3917,10 +3398,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="D43" s="1">
         <v>46195</v>
@@ -3938,10 +3419,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="D44" s="1">
         <v>46195</v>
@@ -3959,10 +3440,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="D45" s="1">
         <v>46195</v>
@@ -3980,10 +3461,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="D46" s="1">
         <v>46196</v>
@@ -4001,10 +3482,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="D47" s="1">
         <v>46196</v>
@@ -4022,10 +3503,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="C48" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="D48" s="1">
         <v>46196</v>
@@ -4043,10 +3524,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="D49" s="1">
         <v>46196</v>
@@ -4316,10 +3797,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="D62" s="1">
         <v>46199</v>
@@ -4337,10 +3818,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="D63" s="1">
         <v>46199</v>
@@ -4442,10 +3923,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>298</v>
       </c>
       <c r="D68" s="1">
         <v>46200</v>
@@ -4463,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="C69" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="D69" s="1">
         <v>46200</v>
@@ -4484,10 +3965,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="C70" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="D70" s="1">
         <v>46200</v>
@@ -4505,10 +3986,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="D71" s="1">
         <v>46200</v>
@@ -4526,10 +4007,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="D72" s="1">
         <v>46200</v>
@@ -4547,10 +4028,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="C73" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="D73" s="1">
         <v>46200</v>
@@ -4592,7 +4073,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>354</v>
       </c>
       <c r="D75" s="1">
         <v>46202</v>
@@ -4652,10 +4133,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>523</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>524</v>
+        <v>356</v>
       </c>
       <c r="D78" s="1">
         <v>46203</v>
@@ -4676,7 +4157,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>525</v>
+        <v>357</v>
       </c>
       <c r="D79" s="1">
         <v>46203</v>
@@ -4697,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>526</v>
+        <v>358</v>
       </c>
       <c r="D80" s="1">
         <v>46203</v>
@@ -4715,10 +4196,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>527</v>
+        <v>359</v>
       </c>
       <c r="C81" t="s">
-        <v>528</v>
+        <v>360</v>
       </c>
       <c r="D81" s="1">
         <v>46204</v>
@@ -4739,7 +4220,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>529</v>
+        <v>361</v>
       </c>
       <c r="D82" s="1">
         <v>46204</v>
@@ -4760,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>530</v>
+        <v>362</v>
       </c>
       <c r="D83" s="1">
         <v>46204</v>
@@ -4778,10 +4259,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>531</v>
+        <v>363</v>
       </c>
       <c r="C84" t="s">
-        <v>532</v>
+        <v>364</v>
       </c>
       <c r="D84" s="1">
         <v>46205</v>
@@ -4802,7 +4283,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>533</v>
+        <v>365</v>
       </c>
       <c r="D85" s="1">
         <v>46205</v>
@@ -4823,7 +4304,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="D86" s="1">
         <v>46205</v>
@@ -4841,7 +4322,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -4862,10 +4343,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="C88" t="s">
-        <v>537</v>
+        <v>369</v>
       </c>
       <c r="D88" s="1">
         <v>46206</v>
@@ -4904,10 +4385,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>538</v>
+        <v>370</v>
       </c>
       <c r="C90" t="s">
-        <v>539</v>
+        <v>371</v>
       </c>
       <c r="D90" s="1">
         <v>46207</v>
@@ -4925,10 +4406,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>540</v>
+        <v>372</v>
       </c>
       <c r="C91" t="s">
-        <v>541</v>
+        <v>373</v>
       </c>
       <c r="D91" s="1">
         <v>46207</v>
@@ -4946,10 +4427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>542</v>
+        <v>374</v>
       </c>
       <c r="C92" t="s">
-        <v>543</v>
+        <v>375</v>
       </c>
       <c r="D92" s="1">
         <v>46208</v>
@@ -4967,10 +4448,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>544</v>
+        <v>376</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>377</v>
       </c>
       <c r="D93" s="1">
         <v>46208</v>
@@ -4988,10 +4469,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>546</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s">
-        <v>547</v>
+        <v>379</v>
       </c>
       <c r="D94" s="1">
         <v>46209</v>
@@ -5009,10 +4490,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>548</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
-        <v>549</v>
+        <v>381</v>
       </c>
       <c r="D95" s="1">
         <v>46209</v>
@@ -5030,10 +4511,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>550</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
-        <v>551</v>
+        <v>383</v>
       </c>
       <c r="D96" s="1">
         <v>46210</v>
@@ -5051,10 +4532,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>552</v>
+        <v>384</v>
       </c>
       <c r="C97" t="s">
-        <v>553</v>
+        <v>385</v>
       </c>
       <c r="D97" s="1">
         <v>46210</v>
@@ -5072,10 +4553,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>554</v>
+        <v>386</v>
       </c>
       <c r="C98" t="s">
-        <v>555</v>
+        <v>387</v>
       </c>
       <c r="D98" s="1">
         <v>46212</v>
@@ -5093,10 +4574,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>556</v>
+        <v>388</v>
       </c>
       <c r="C99" t="s">
-        <v>557</v>
+        <v>389</v>
       </c>
       <c r="D99" s="1">
         <v>46213</v>
@@ -5114,10 +4595,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>558</v>
+        <v>390</v>
       </c>
       <c r="C100" t="s">
-        <v>559</v>
+        <v>391</v>
       </c>
       <c r="D100" s="1">
         <v>46214</v>
@@ -5135,10 +4616,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>560</v>
+        <v>392</v>
       </c>
       <c r="C101" t="s">
-        <v>561</v>
+        <v>393</v>
       </c>
       <c r="D101" s="1">
         <v>46214</v>
@@ -5156,10 +4637,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>562</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>395</v>
       </c>
       <c r="D102" s="1">
         <v>46217</v>
@@ -5177,10 +4658,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>564</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>565</v>
+        <v>397</v>
       </c>
       <c r="D103" s="1">
         <v>46218</v>
@@ -5198,10 +4679,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="C104" t="s">
-        <v>569</v>
+        <v>401</v>
       </c>
       <c r="D104" s="1">
         <v>46221</v>
@@ -5219,10 +4700,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>566</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>567</v>
+        <v>399</v>
       </c>
       <c r="D105" s="1">
         <v>46222</v>
@@ -5249,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5268,31 +4749,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>430</v>
+      <c r="B3" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>435</v>
+      <c r="B4" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>463</v>
+      <c r="B5" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5300,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5308,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5316,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5324,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5332,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5340,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5348,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5356,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5372,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5380,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5388,7 +4869,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5396,7 +4877,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5404,7 +4885,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5412,7 +4893,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -5420,7 +4901,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -5436,7 +4917,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -5444,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -5452,7 +4933,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -5460,7 +4941,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -5468,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5476,7 +4957,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -5484,7 +4965,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -5492,7 +4973,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>419</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,7 +4981,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -5508,7 +4989,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5516,135 +4997,135 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
-        <v>470</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s">
-        <v>471</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>472</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>473</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>453</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
-        <v>475</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5706,10 +5187,10 @@
         <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5717,10 +5198,10 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="J3" t="s">
-        <v>322</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5728,10 +5209,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5739,10 +5220,10 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5750,21 +5231,21 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5772,32 +5253,32 @@
         <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>347</v>
       </c>
       <c r="J10" t="s">
-        <v>516</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5805,10 +5286,10 @@
         <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>349</v>
       </c>
       <c r="J11" t="s">
-        <v>518</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5816,153 +5297,153 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="J12" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>352</v>
       </c>
       <c r="J13" t="s">
-        <v>521</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>312</v>
       </c>
       <c r="J14" t="s">
-        <v>482</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>313</v>
       </c>
       <c r="J15" t="s">
-        <v>497</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>315</v>
       </c>
       <c r="J16" t="s">
-        <v>484</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>331</v>
       </c>
       <c r="J17" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
-        <v>501</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>351</v>
       </c>
       <c r="J19" t="s">
-        <v>502</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>335</v>
       </c>
       <c r="J20" t="s">
-        <v>504</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>505</v>
+        <v>337</v>
       </c>
       <c r="J21" t="s">
-        <v>506</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>508</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>494</v>
+        <v>326</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="J23" t="s">
-        <v>510</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>495</v>
+        <v>327</v>
       </c>
       <c r="B24" t="s">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="J24" t="s">
-        <v>512</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>345</v>
       </c>
       <c r="J25" t="s">
-        <v>514</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5975,999 +5456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218EA9D0-8000-434A-BA2F-D2E8A01B4455}">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" display="http://club.int/" xr:uid="{BD6EA22E-295E-7E46-B181-2B31B97F58D9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E21D59-11F2-6647-B74E-6B03465C0273}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L64"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6995,13 +5488,13 @@
         <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="I1" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
         <v>92</v>
@@ -7021,36 +5514,36 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="6">
+        <v>145</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.83333333333333337</v>
       </c>
       <c r="F2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45823</v>
       </c>
-      <c r="H2" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>ahl</v>
-      </c>
-      <c r="I2" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>mia</v>
+      <c r="H2" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J2" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K2" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L2">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7065,36 +5558,36 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="6">
+        <v>148</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="7">
+        <v>164</v>
+      </c>
+      <c r="G3" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45823.666666666664</v>
       </c>
-      <c r="H3" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>bay</v>
-      </c>
-      <c r="I3" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>akl</v>
+      <c r="H3" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K3" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L3" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7109,36 +5602,36 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="6">
+        <v>132</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.625</v>
       </c>
       <c r="F4" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45823.791666666664</v>
       </c>
-      <c r="H4" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>psg</v>
-      </c>
-      <c r="I4" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>atm</v>
+      <c r="H4" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K4" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L4" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7153,36 +5646,36 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="6">
+        <v>143</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.75</v>
       </c>
       <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45823.916666666664</v>
       </c>
-      <c r="H5" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>pal</v>
-      </c>
-      <c r="I5" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>por</v>
+      <c r="H5" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K5" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>L1</v>
+        <v>#REF!</v>
       </c>
       <c r="L5" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7197,36 +5690,36 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="6">
+        <v>146</v>
+      </c>
+      <c r="E6" s="5">
         <v>0.91666666666666663</v>
       </c>
       <c r="F6" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45824.083333333328</v>
       </c>
-      <c r="H6" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>bot</v>
-      </c>
-      <c r="I6" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>sea</v>
+      <c r="H6" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K6" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L6">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7241,36 +5734,36 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="6">
+        <v>165</v>
+      </c>
+      <c r="E7" s="5">
         <v>0.625</v>
       </c>
       <c r="F7" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45824.791666666664</v>
       </c>
-      <c r="H7" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>che</v>
-      </c>
-      <c r="I7" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>leo</v>
+      <c r="H7" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K7" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L7">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7285,36 +5778,36 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="6">
+        <v>135</v>
+      </c>
+      <c r="E8" s="5">
         <v>0.75</v>
       </c>
       <c r="F8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45824.916666666664</v>
       </c>
-      <c r="H8" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>boc</v>
-      </c>
-      <c r="I8" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>slb</v>
+      <c r="H8" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J8" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K8" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L8">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7329,36 +5822,36 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="6">
+        <v>136</v>
+      </c>
+      <c r="E9" s="5">
         <v>0.875</v>
       </c>
       <c r="F9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45825.041666666664</v>
       </c>
-      <c r="H9" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>fla</v>
-      </c>
-      <c r="I9" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>est</v>
+      <c r="H9" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J9" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K9" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L9">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7373,36 +5866,36 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="6">
+        <v>138</v>
+      </c>
+      <c r="E10" s="5">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45825.666666666664</v>
       </c>
-      <c r="H10" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>flu</v>
-      </c>
-      <c r="I10" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>bvb</v>
+      <c r="H10" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J10" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K10" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L10" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7417,36 +5910,36 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="6">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.625</v>
       </c>
       <c r="F11" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45825.791666666664</v>
       </c>
-      <c r="H11" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>riv</v>
-      </c>
-      <c r="I11" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>urd</v>
+      <c r="H11" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J11" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K11" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L11">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7461,36 +5954,36 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="6">
+        <v>156</v>
+      </c>
+      <c r="E12" s="5">
         <v>0.75</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45825.916666666664</v>
       </c>
-      <c r="H12" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>uhd</v>
-      </c>
-      <c r="I12" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>msu</v>
+      <c r="H12" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J12" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K12" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L12" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7505,36 +5998,36 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="6">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5">
         <v>0.625</v>
       </c>
       <c r="F13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45825.791666666664</v>
       </c>
-      <c r="H13" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>cfm</v>
-      </c>
-      <c r="I13" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>int</v>
+      <c r="H13" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J13" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K13" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L13" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7549,36 +6042,36 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="6">
+        <v>157</v>
+      </c>
+      <c r="E14" s="5">
         <v>0.5</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45826.666666666664</v>
       </c>
-      <c r="H14" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>mci</v>
-      </c>
-      <c r="I14" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>wac</v>
+      <c r="H14" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J14" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K14" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L14">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7593,36 +6086,36 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="6">
+        <v>140</v>
+      </c>
+      <c r="E15" s="5">
         <v>0.625</v>
       </c>
       <c r="F15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45826.791666666664</v>
       </c>
-      <c r="H15" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>rma</v>
-      </c>
-      <c r="I15" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>hil</v>
+      <c r="H15" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J15" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K15" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L15">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7637,36 +6130,36 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="6">
+        <v>162</v>
+      </c>
+      <c r="E16" s="5">
         <v>0.75</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="7">
+        <v>164</v>
+      </c>
+      <c r="G16" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45826.916666666664</v>
       </c>
-      <c r="H16" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>pac</v>
-      </c>
-      <c r="I16" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>sal</v>
+      <c r="H16" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J16" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K16" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L16" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7681,36 +6174,36 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>279</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="6">
+        <v>159</v>
+      </c>
+      <c r="E17" s="5">
         <v>0.875</v>
       </c>
       <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45827.041666666664</v>
       </c>
-      <c r="H17" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>ain</v>
-      </c>
-      <c r="I17" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>juv</v>
+      <c r="H17" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J17" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K17" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L17" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7725,36 +6218,36 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="6">
+        <v>144</v>
+      </c>
+      <c r="E18" s="5">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45827.666666666664</v>
       </c>
-      <c r="H18" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>pal</v>
-      </c>
-      <c r="I18" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>ahl</v>
+      <c r="H18" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K18" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L18" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7769,36 +6262,36 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="6">
+        <v>143</v>
+      </c>
+      <c r="E19" s="5">
         <v>0.625</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45827.791666666664</v>
       </c>
-      <c r="H19" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>mia</v>
-      </c>
-      <c r="I19" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>por</v>
+      <c r="H19" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J19" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K19" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K19" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>L1</v>
+        <v>#REF!</v>
       </c>
       <c r="L19">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7813,36 +6306,36 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="6">
+        <v>132</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.75</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45827.916666666664</v>
       </c>
-      <c r="H20" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>sea</v>
-      </c>
-      <c r="I20" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>atm</v>
+      <c r="H20" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J20" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K20" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L20">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7857,36 +6350,36 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="6">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5">
         <v>0.875</v>
       </c>
       <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45828.041666666664</v>
       </c>
-      <c r="H21" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>psg</v>
-      </c>
-      <c r="I21" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>bot</v>
+      <c r="H21" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J21" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K21" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L21" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7901,36 +6394,36 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="6">
+        <v>148</v>
+      </c>
+      <c r="E22" s="5">
         <v>0.5</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45828.666666666664</v>
       </c>
-      <c r="H22" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>slb</v>
-      </c>
-      <c r="I22" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>akl</v>
+      <c r="H22" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J22" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K22" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L22" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7945,36 +6438,36 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="6">
+        <v>150</v>
+      </c>
+      <c r="E23" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="F23" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45828.75</v>
       </c>
-      <c r="H23" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>fla</v>
-      </c>
-      <c r="I23" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>che</v>
+      <c r="H23" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J23" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K23" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L23">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -7989,36 +6482,36 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="6">
+        <v>136</v>
+      </c>
+      <c r="E24" s="5">
         <v>0.75</v>
       </c>
       <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45828.916666666664</v>
       </c>
-      <c r="H24" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>leo</v>
-      </c>
-      <c r="I24" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>est</v>
+      <c r="H24" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J24" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K24" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L24" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8033,36 +6526,36 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="6">
+        <v>134</v>
+      </c>
+      <c r="E25" s="5">
         <v>0.875</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45829.041666666664</v>
       </c>
-      <c r="H25" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>bay</v>
-      </c>
-      <c r="I25" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>boc</v>
+      <c r="H25" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J25" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K25" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L25">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8077,36 +6570,36 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="6">
+        <v>138</v>
+      </c>
+      <c r="E26" s="5">
         <v>0.5</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="7">
+        <v>164</v>
+      </c>
+      <c r="G26" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45829.666666666664</v>
       </c>
-      <c r="H26" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>msu</v>
-      </c>
-      <c r="I26" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>bvb</v>
+      <c r="H26" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J26" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K26" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L26" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8121,36 +6614,36 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="6">
+        <v>137</v>
+      </c>
+      <c r="E27" s="5">
         <v>0.625</v>
       </c>
       <c r="F27" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45829.791666666664</v>
       </c>
-      <c r="H27" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>int</v>
-      </c>
-      <c r="I27" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>urd</v>
+      <c r="H27" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J27" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K27" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L27">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8165,36 +6658,36 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>308</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="6">
+        <v>155</v>
+      </c>
+      <c r="E28" s="5">
         <v>0.75</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45829.916666666664</v>
       </c>
-      <c r="H28" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>flu</v>
-      </c>
-      <c r="I28" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>uhd</v>
+      <c r="H28" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J28" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K28" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L28" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8209,36 +6702,36 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="6">
+        <v>151</v>
+      </c>
+      <c r="E29" s="5">
         <v>0.875</v>
       </c>
       <c r="F29" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45830.041666666664</v>
       </c>
-      <c r="H29" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>riv</v>
-      </c>
-      <c r="I29" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>cfm</v>
+      <c r="H29" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J29" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K29" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L29" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8253,36 +6746,36 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="6">
+        <v>157</v>
+      </c>
+      <c r="E30" s="5">
         <v>0.5</v>
       </c>
       <c r="F30" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45830.666666666664</v>
       </c>
-      <c r="H30" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>juv</v>
-      </c>
-      <c r="I30" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>wac</v>
+      <c r="H30" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I30" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J30" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K30" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L30">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8297,36 +6790,36 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>294</v>
-      </c>
-      <c r="E31" s="6">
+        <v>161</v>
+      </c>
+      <c r="E31" s="5">
         <v>0.625</v>
       </c>
       <c r="F31" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45830.791666666664</v>
       </c>
-      <c r="H31" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>rma</v>
-      </c>
-      <c r="I31" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>pac</v>
+      <c r="H31" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J31" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K31" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L31" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8341,36 +6834,36 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="6">
+        <v>140</v>
+      </c>
+      <c r="E32" s="5">
         <v>0.75</v>
       </c>
       <c r="F32" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45830.916666666664</v>
       </c>
-      <c r="H32" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>sal</v>
-      </c>
-      <c r="I32" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>hil</v>
+      <c r="H32" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J32" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K32" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L32" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8385,36 +6878,36 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="6">
+        <v>158</v>
+      </c>
+      <c r="E33" s="5">
         <v>0.875</v>
       </c>
       <c r="F33" t="s">
         <v>108</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45831.041666666664</v>
       </c>
-      <c r="H33" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>mci</v>
-      </c>
-      <c r="I33" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>ain</v>
+      <c r="H33" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J33" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K33" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L33">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8429,36 +6922,36 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="6">
+        <v>131</v>
+      </c>
+      <c r="E34" s="5">
         <v>0.625</v>
       </c>
       <c r="F34" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45831.791666666664</v>
       </c>
-      <c r="H34" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>sea</v>
-      </c>
-      <c r="I34" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>psg</v>
+      <c r="H34" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J34" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K34" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L34">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8473,36 +6966,36 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="6">
+        <v>133</v>
+      </c>
+      <c r="E35" s="5">
         <v>0.625</v>
       </c>
       <c r="F35" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45831.791666666664</v>
       </c>
-      <c r="H35" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>atm</v>
-      </c>
-      <c r="I35" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>bot</v>
+      <c r="H35" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I35" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J35" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K35" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L35" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8517,36 +7010,36 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="6">
+        <v>142</v>
+      </c>
+      <c r="E36" s="5">
         <v>0.875</v>
       </c>
       <c r="F36" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45832.041666666664</v>
       </c>
-      <c r="H36" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>mia</v>
-      </c>
-      <c r="I36" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>pal</v>
+      <c r="H36" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I36" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J36" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K36" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L36">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8561,36 +7054,36 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="6">
+        <v>144</v>
+      </c>
+      <c r="E37" s="5">
         <v>0.875</v>
       </c>
       <c r="F37" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45832.041666666664</v>
       </c>
-      <c r="H37" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>por</v>
-      </c>
-      <c r="I37" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>ahl</v>
-      </c>
-      <c r="J37" t="str">
+      <c r="H37" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I37" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J37" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>L1</v>
+        <v>#REF!</v>
       </c>
       <c r="K37" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L37" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8605,36 +7098,36 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="6">
+        <v>134</v>
+      </c>
+      <c r="E38" s="5">
         <v>0.625</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45832.791666666664</v>
       </c>
-      <c r="H38" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>akl</v>
-      </c>
-      <c r="I38" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>boc</v>
+      <c r="H38" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I38" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J38" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K38" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L38" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8649,36 +7142,36 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="6">
+        <v>147</v>
+      </c>
+      <c r="E39" s="5">
         <v>0.625</v>
       </c>
       <c r="F39" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45832.791666666664</v>
       </c>
-      <c r="H39" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>slb</v>
-      </c>
-      <c r="I39" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>bay</v>
+      <c r="H39" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I39" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J39" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K39" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L39" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8693,36 +7186,36 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" s="6">
+        <v>149</v>
+      </c>
+      <c r="E40" s="5">
         <v>0.875</v>
       </c>
       <c r="F40" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45833.041666666664</v>
       </c>
-      <c r="H40" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>leo</v>
-      </c>
-      <c r="I40" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>fla</v>
+      <c r="H40" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I40" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J40" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K40" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L40" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8737,36 +7230,36 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="6">
+        <v>150</v>
+      </c>
+      <c r="E41" s="5">
         <v>0.875</v>
       </c>
       <c r="F41" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45833.041666666664</v>
       </c>
-      <c r="H41" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>est</v>
-      </c>
-      <c r="I41" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>che</v>
+      <c r="H41" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I41" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J41" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K41" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L41">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8781,36 +7274,36 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="6">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5">
         <v>0.625</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
-      </c>
-      <c r="G42" s="7">
+        <v>164</v>
+      </c>
+      <c r="G42" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45833.791666666664</v>
       </c>
-      <c r="H42" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>bvb</v>
-      </c>
-      <c r="I42" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>uhd</v>
+      <c r="H42" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I42" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J42" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K42" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L42" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8825,36 +7318,36 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
-      </c>
-      <c r="E43" s="6">
+        <v>166</v>
+      </c>
+      <c r="E43" s="5">
         <v>0.625</v>
       </c>
       <c r="F43" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45833.791666666664</v>
       </c>
-      <c r="H43" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>msu</v>
-      </c>
-      <c r="I43" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>flu</v>
+      <c r="H43" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I43" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J43" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K43" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L43">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8869,36 +7362,36 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="6">
+        <v>141</v>
+      </c>
+      <c r="E44" s="5">
         <v>0.875</v>
       </c>
       <c r="F44" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45834.041666666664</v>
       </c>
-      <c r="H44" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>int</v>
-      </c>
-      <c r="I44" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>riv</v>
+      <c r="H44" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I44" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J44" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K44" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L44">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8913,36 +7406,36 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
-      </c>
-      <c r="E45" s="6">
+        <v>151</v>
+      </c>
+      <c r="E45" s="5">
         <v>0.875</v>
       </c>
       <c r="F45" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45834.041666666664</v>
       </c>
-      <c r="H45" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>urd</v>
-      </c>
-      <c r="I45" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>cfm</v>
+      <c r="H45" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I45" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J45" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K45" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L45" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -8957,36 +7450,36 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="6">
+        <v>139</v>
+      </c>
+      <c r="E46" s="5">
         <v>0.625</v>
       </c>
       <c r="F46" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45834.791666666664</v>
       </c>
-      <c r="H46" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>juv</v>
-      </c>
-      <c r="I46" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>mci</v>
+      <c r="H46" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I46" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J46" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K46" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L46" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9001,36 +7494,36 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="6">
+        <v>158</v>
+      </c>
+      <c r="E47" s="5">
         <v>0.625</v>
       </c>
       <c r="F47" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45834.791666666664</v>
       </c>
-      <c r="H47" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>wac</v>
-      </c>
-      <c r="I47" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>ain</v>
+      <c r="H47" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I47" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J47" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K47" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L47" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9045,36 +7538,36 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="6">
+        <v>161</v>
+      </c>
+      <c r="E48" s="5">
         <v>0.875</v>
       </c>
       <c r="F48" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45835.041666666664</v>
       </c>
-      <c r="H48" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>hil</v>
-      </c>
-      <c r="I48" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>pac</v>
+      <c r="H48" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I48" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J48" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K48" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L48" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9089,36 +7582,36 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
-      </c>
-      <c r="E49" s="6">
+        <v>160</v>
+      </c>
+      <c r="E49" s="5">
         <v>0.875</v>
       </c>
       <c r="F49" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45835.041666666664</v>
       </c>
-      <c r="H49" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>sal</v>
-      </c>
-      <c r="I49" t="str">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>rma</v>
+      <c r="H49" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I49" t="e">
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J49" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K49" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L49">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9138,31 +7631,31 @@
       <c r="D50" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>0.5</v>
       </c>
       <c r="F50" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45836.666666666664</v>
       </c>
       <c r="H50" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I50" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J50" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K50" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L50">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9182,31 +7675,31 @@
       <c r="D51" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="F51" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45836.833333333328</v>
       </c>
       <c r="H51" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I51" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J51" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K51" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L51" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9226,31 +7719,31 @@
       <c r="D52" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45837.666666666664</v>
       </c>
       <c r="H52" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I52" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J52" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K52" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L52">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9270,31 +7763,31 @@
       <c r="D53" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="F53" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45837.833333333328</v>
       </c>
       <c r="H53" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I53" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J53" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K53" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L53">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9314,31 +7807,31 @@
       <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>0.625</v>
       </c>
       <c r="F54" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45838.791666666664</v>
       </c>
       <c r="H54" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I54" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J54" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K54" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L54" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9358,31 +7851,31 @@
       <c r="D55" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>0.875</v>
       </c>
       <c r="F55" t="s">
         <v>128</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45839.041666666664</v>
       </c>
       <c r="H55" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I55" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J55" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K55" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L55" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9402,31 +7895,31 @@
       <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>0.875</v>
       </c>
       <c r="F56" t="s">
         <v>108</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45840.041666666664</v>
       </c>
       <c r="H56" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I56" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J56" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K56" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L56">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9446,31 +7939,31 @@
       <c r="D57" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>0.625</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45839.791666666664</v>
       </c>
       <c r="H57" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I57" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J57" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K57" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L57">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9490,31 +7983,31 @@
       <c r="D58" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>0.625</v>
       </c>
       <c r="F58" t="s">
         <v>128</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45842.791666666664</v>
       </c>
       <c r="H58" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I58" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J58" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K58" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L58" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9534,31 +8027,31 @@
       <c r="D59" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>0.875</v>
       </c>
       <c r="F59" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45843.041666666664</v>
       </c>
       <c r="H59" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I59" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J59" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K59" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L59">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9578,31 +8071,31 @@
       <c r="D60" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>0.5</v>
       </c>
       <c r="F60" t="s">
         <v>108</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45843.666666666664</v>
       </c>
       <c r="H60" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I60" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J60" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K60" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L60">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9622,31 +8115,31 @@
       <c r="D61" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="F61" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45843.833333333328</v>
       </c>
       <c r="H61" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I61" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J61" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K61" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L61" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9666,31 +8159,31 @@
       <c r="D62" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>0.625</v>
       </c>
       <c r="F62" t="s">
         <v>129</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45846.791666666664</v>
       </c>
       <c r="H62" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I62" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J62" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K62" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L62" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9710,31 +8203,31 @@
       <c r="D63" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>0.625</v>
       </c>
       <c r="F63" t="s">
         <v>129</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45847.791666666664</v>
       </c>
       <c r="H63" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I63" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J63" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K63" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L63" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>
@@ -9754,31 +8247,31 @@
       <c r="D64" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>0.625</v>
       </c>
       <c r="F64" t="s">
         <v>129</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <f>Table6[[#This Row],[date]]+Table6[[#This Row],[time]]+(4/24)</f>
         <v>45851.791666666664</v>
       </c>
       <c r="H64" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[home]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[home]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="I64" t="e">
-        <f>INDEX(club[key],MATCH(Table6[[#This Row],[away]],club[en],0))</f>
-        <v>#N/A</v>
+        <f>INDEX(#REF!,MATCH(Table6[[#This Row],[away]],#REF!,0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J64" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[home-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="K64" t="e">
         <f>INDEX(seeds[seed],MATCH(UPPER(Table6[[#This Row],[away-club]]),seeds[team],0))</f>
-        <v>#N/A</v>
+        <v>#REF!</v>
       </c>
       <c r="L64" t="e">
         <f>_xlfn.NUMBERVALUE(_xlfn.TEXTAFTER(INDEX(tournament[key],MATCH(Table6[[#This Row],[location]],tournament[en],0)),"."))</f>

--- a/tournaments/2026-mens-world-cup.xlsx
+++ b/tournaments/2026-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B327B9E-A731-274C-972F-050E1359F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE6FFA-B005-4741-B094-3202A3D986F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19740" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19740" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -633,9 +633,6 @@
     <t>جام جهانی 2026 در آمریکای شمالی</t>
   </si>
   <si>
-    <t>postername</t>
-  </si>
-  <si>
     <t>Calendario y resultados de la Copa Mundial 2026</t>
   </si>
   <si>
@@ -1300,6 +1297,9 @@
   </si>
   <si>
     <t>UZB</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -1855,11 +1855,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1935,28 +1935,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>188</v>
@@ -1967,28 +1967,28 @@
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2011,28 +2011,28 @@
         <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2040,28 +2040,28 @@
         <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2069,28 +2069,28 @@
         <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2098,28 +2098,28 @@
         <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2127,28 +2127,28 @@
         <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,28 +2156,28 @@
         <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2214,28 +2214,28 @@
         <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2301,62 +2301,62 @@
         <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>112</v>
@@ -2385,65 +2385,65 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>151</v>
@@ -2484,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A83" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2873,10 +2873,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
         <v>286</v>
-      </c>
-      <c r="C18" t="s">
-        <v>287</v>
       </c>
       <c r="D18" s="1">
         <v>46189</v>
@@ -2894,10 +2894,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" t="s">
         <v>288</v>
-      </c>
-      <c r="C19" t="s">
-        <v>289</v>
       </c>
       <c r="D19" s="1">
         <v>46189</v>
@@ -2915,10 +2915,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
         <v>290</v>
-      </c>
-      <c r="C20" t="s">
-        <v>291</v>
       </c>
       <c r="D20" s="1">
         <v>46189</v>
@@ -2936,10 +2936,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
         <v>292</v>
-      </c>
-      <c r="C21" t="s">
-        <v>293</v>
       </c>
       <c r="D21" s="1">
         <v>46189</v>
@@ -2957,10 +2957,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" t="s">
         <v>298</v>
-      </c>
-      <c r="C22" t="s">
-        <v>299</v>
       </c>
       <c r="D22" s="1">
         <v>46190</v>
@@ -2978,10 +2978,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" t="s">
         <v>300</v>
-      </c>
-      <c r="C23" t="s">
-        <v>301</v>
       </c>
       <c r="D23" s="1">
         <v>46190</v>
@@ -2999,10 +2999,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
         <v>294</v>
-      </c>
-      <c r="C24" t="s">
-        <v>295</v>
       </c>
       <c r="D24" s="1">
         <v>46190</v>
@@ -3020,10 +3020,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
         <v>296</v>
-      </c>
-      <c r="C25" t="s">
-        <v>297</v>
       </c>
       <c r="D25" s="1">
         <v>46190</v>
@@ -3377,10 +3377,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="1">
         <v>46195</v>
@@ -3398,10 +3398,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1">
         <v>46195</v>
@@ -3419,10 +3419,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D44" s="1">
         <v>46195</v>
@@ -3440,10 +3440,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="1">
         <v>46195</v>
@@ -3461,10 +3461,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D46" s="1">
         <v>46196</v>
@@ -3482,10 +3482,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D47" s="1">
         <v>46196</v>
@@ -3503,10 +3503,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D48" s="1">
         <v>46196</v>
@@ -3524,10 +3524,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D49" s="1">
         <v>46196</v>
@@ -3797,10 +3797,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D62" s="1">
         <v>46199</v>
@@ -3818,10 +3818,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" t="s">
         <v>287</v>
-      </c>
-      <c r="C63" t="s">
-        <v>288</v>
       </c>
       <c r="D63" s="1">
         <v>46199</v>
@@ -3923,10 +3923,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D68" s="1">
         <v>46200</v>
@@ -3944,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
         <v>299</v>
-      </c>
-      <c r="C69" t="s">
-        <v>300</v>
       </c>
       <c r="D69" s="1">
         <v>46200</v>
@@ -3965,10 +3965,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D70" s="1">
         <v>46200</v>
@@ -3986,10 +3986,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" t="s">
         <v>291</v>
-      </c>
-      <c r="C71" t="s">
-        <v>292</v>
       </c>
       <c r="D71" s="1">
         <v>46200</v>
@@ -4007,10 +4007,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D72" s="1">
         <v>46200</v>
@@ -4028,10 +4028,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" t="s">
         <v>295</v>
-      </c>
-      <c r="C73" t="s">
-        <v>296</v>
       </c>
       <c r="D73" s="1">
         <v>46200</v>
@@ -4073,7 +4073,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D75" s="1">
         <v>46202</v>
@@ -4133,10 +4133,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" t="s">
         <v>355</v>
-      </c>
-      <c r="C78" t="s">
-        <v>356</v>
       </c>
       <c r="D78" s="1">
         <v>46203</v>
@@ -4157,7 +4157,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D79" s="1">
         <v>46203</v>
@@ -4178,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D80" s="1">
         <v>46203</v>
@@ -4196,10 +4196,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" t="s">
         <v>359</v>
-      </c>
-      <c r="C81" t="s">
-        <v>360</v>
       </c>
       <c r="D81" s="1">
         <v>46204</v>
@@ -4220,7 +4220,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D82" s="1">
         <v>46204</v>
@@ -4241,7 +4241,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D83" s="1">
         <v>46204</v>
@@ -4259,10 +4259,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" t="s">
         <v>363</v>
-      </c>
-      <c r="C84" t="s">
-        <v>364</v>
       </c>
       <c r="D84" s="1">
         <v>46205</v>
@@ -4283,7 +4283,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D85" s="1">
         <v>46205</v>
@@ -4304,7 +4304,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D86" s="1">
         <v>46205</v>
@@ -4322,7 +4322,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -4343,10 +4343,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>367</v>
+      </c>
+      <c r="C88" t="s">
         <v>368</v>
-      </c>
-      <c r="C88" t="s">
-        <v>369</v>
       </c>
       <c r="D88" s="1">
         <v>46206</v>
@@ -4385,10 +4385,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" t="s">
         <v>370</v>
-      </c>
-      <c r="C90" t="s">
-        <v>371</v>
       </c>
       <c r="D90" s="1">
         <v>46207</v>
@@ -4406,10 +4406,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>371</v>
+      </c>
+      <c r="C91" t="s">
         <v>372</v>
-      </c>
-      <c r="C91" t="s">
-        <v>373</v>
       </c>
       <c r="D91" s="1">
         <v>46207</v>
@@ -4427,10 +4427,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>373</v>
+      </c>
+      <c r="C92" t="s">
         <v>374</v>
-      </c>
-      <c r="C92" t="s">
-        <v>375</v>
       </c>
       <c r="D92" s="1">
         <v>46208</v>
@@ -4448,10 +4448,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" t="s">
         <v>376</v>
-      </c>
-      <c r="C93" t="s">
-        <v>377</v>
       </c>
       <c r="D93" s="1">
         <v>46208</v>
@@ -4469,10 +4469,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" t="s">
         <v>378</v>
-      </c>
-      <c r="C94" t="s">
-        <v>379</v>
       </c>
       <c r="D94" s="1">
         <v>46209</v>
@@ -4490,10 +4490,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" t="s">
         <v>380</v>
-      </c>
-      <c r="C95" t="s">
-        <v>381</v>
       </c>
       <c r="D95" s="1">
         <v>46209</v>
@@ -4511,10 +4511,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>381</v>
+      </c>
+      <c r="C96" t="s">
         <v>382</v>
-      </c>
-      <c r="C96" t="s">
-        <v>383</v>
       </c>
       <c r="D96" s="1">
         <v>46210</v>
@@ -4532,10 +4532,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>383</v>
+      </c>
+      <c r="C97" t="s">
         <v>384</v>
-      </c>
-      <c r="C97" t="s">
-        <v>385</v>
       </c>
       <c r="D97" s="1">
         <v>46210</v>
@@ -4553,10 +4553,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" t="s">
         <v>386</v>
-      </c>
-      <c r="C98" t="s">
-        <v>387</v>
       </c>
       <c r="D98" s="1">
         <v>46212</v>
@@ -4574,10 +4574,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>387</v>
+      </c>
+      <c r="C99" t="s">
         <v>388</v>
-      </c>
-      <c r="C99" t="s">
-        <v>389</v>
       </c>
       <c r="D99" s="1">
         <v>46213</v>
@@ -4595,10 +4595,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>389</v>
+      </c>
+      <c r="C100" t="s">
         <v>390</v>
-      </c>
-      <c r="C100" t="s">
-        <v>391</v>
       </c>
       <c r="D100" s="1">
         <v>46214</v>
@@ -4616,10 +4616,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>391</v>
+      </c>
+      <c r="C101" t="s">
         <v>392</v>
-      </c>
-      <c r="C101" t="s">
-        <v>393</v>
       </c>
       <c r="D101" s="1">
         <v>46214</v>
@@ -4637,10 +4637,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
         <v>394</v>
-      </c>
-      <c r="C102" t="s">
-        <v>395</v>
       </c>
       <c r="D102" s="1">
         <v>46217</v>
@@ -4658,10 +4658,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>395</v>
+      </c>
+      <c r="C103" t="s">
         <v>396</v>
-      </c>
-      <c r="C103" t="s">
-        <v>397</v>
       </c>
       <c r="D103" s="1">
         <v>46218</v>
@@ -4679,10 +4679,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" t="s">
         <v>400</v>
-      </c>
-      <c r="C104" t="s">
-        <v>401</v>
       </c>
       <c r="D104" s="1">
         <v>46221</v>
@@ -4700,10 +4700,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" t="s">
         <v>398</v>
-      </c>
-      <c r="C105" t="s">
-        <v>399</v>
       </c>
       <c r="D105" s="1">
         <v>46222</v>
@@ -4730,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4773,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4781,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4797,7 +4797,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4805,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4813,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4821,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4829,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4837,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4853,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4861,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4869,7 +4869,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4877,7 +4877,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4893,7 +4893,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4901,7 +4901,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4909,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4917,7 +4917,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4933,7 +4933,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4941,7 +4941,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4949,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4957,7 +4957,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4981,7 +4981,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4989,7 +4989,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4997,76 +4997,76 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
         <v>68</v>
@@ -5074,58 +5074,58 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
         <v>183</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" t="s">
         <v>347</v>
-      </c>
-      <c r="J10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5286,10 +5286,10 @@
         <v>106</v>
       </c>
       <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" t="s">
         <v>349</v>
-      </c>
-      <c r="J11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5297,153 +5297,153 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J12" t="s">
         <v>335</v>
-      </c>
-      <c r="J12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="J13" t="s">
         <v>352</v>
-      </c>
-      <c r="J13" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J16" t="s">
         <v>315</v>
-      </c>
-      <c r="J16" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J18" t="s">
         <v>332</v>
-      </c>
-      <c r="J18" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J20" t="s">
         <v>335</v>
-      </c>
-      <c r="J20" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" t="s">
         <v>337</v>
-      </c>
-      <c r="J21" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" t="s">
+        <v>338</v>
+      </c>
+      <c r="J22" t="s">
         <v>339</v>
-      </c>
-      <c r="J22" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" t="s">
         <v>341</v>
-      </c>
-      <c r="J23" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" t="s">
         <v>343</v>
-      </c>
-      <c r="J24" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
+        <v>344</v>
+      </c>
+      <c r="J25" t="s">
         <v>345</v>
-      </c>
-      <c r="J25" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2026-mens-world-cup.xlsx
+++ b/tournaments/2026-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1776D9-E38D-1749-AEA2-EC02B5A2DA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D16728-FEAB-7744-BA57-69AF23974B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19740" activeTab="4" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19740" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>timezone</t>
   </si>
   <si>
-    <t>America/New_York</t>
-  </si>
-  <si>
     <t>WC 2026 Schedule / Scores</t>
   </si>
   <si>
@@ -1144,6 +1141,9 @@
   </si>
   <si>
     <t># source … https://hermann-baum.de/excel/WorldCup/en/</t>
+  </si>
+  <si>
+    <t>US/Pacific</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1234,14 +1234,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -1256,7 +1256,7 @@
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,14 +1296,14 @@
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
-    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
     <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,11 +1641,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1695,57 +1695,57 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1753,28 +1753,28 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1797,28 +1797,28 @@
         <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,28 +1826,28 @@
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1855,28 +1855,28 @@
         <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1884,28 +1884,28 @@
         <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1913,28 +1913,28 @@
         <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1942,28 +1942,28 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2000,28 +2000,28 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2087,62 +2087,62 @@
         <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>97</v>
@@ -2171,65 +2171,65 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>108</v>
@@ -2596,10 +2596,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
         <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>228</v>
       </c>
       <c r="D18" s="6">
         <v>46189.791666666664</v>
@@ -2613,10 +2613,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" t="s">
         <v>229</v>
-      </c>
-      <c r="C19" t="s">
-        <v>230</v>
       </c>
       <c r="D19" s="6">
         <v>46189.916666666664</v>
@@ -2630,10 +2630,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
         <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
       </c>
       <c r="D20" s="6">
         <v>46190.041666666664</v>
@@ -2647,10 +2647,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
         <v>233</v>
-      </c>
-      <c r="C21" t="s">
-        <v>234</v>
       </c>
       <c r="D21" s="6">
         <v>46189.166666666664</v>
@@ -2664,10 +2664,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
         <v>241</v>
-      </c>
-      <c r="C22" t="s">
-        <v>242</v>
       </c>
       <c r="D22" s="6">
         <v>46190.958333333328</v>
@@ -2681,10 +2681,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
       </c>
       <c r="D23" s="6">
         <v>46190.833333333328</v>
@@ -2698,10 +2698,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
         <v>235</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
       </c>
       <c r="D24" s="6">
         <v>46190.708333333328</v>
@@ -2715,10 +2715,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
       </c>
       <c r="D25" s="6">
         <v>46191.083333333328</v>
@@ -3004,10 +3004,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D42" s="6">
         <v>46196</v>
@@ -3021,10 +3021,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="6">
         <v>46195.875</v>
@@ -3038,10 +3038,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="6">
         <v>46195.708333333328</v>
@@ -3055,10 +3055,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="6">
         <v>46196.125</v>
@@ -3072,10 +3072,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" s="6">
         <v>46196.833333333328</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="6">
         <v>46196.958333333328</v>
@@ -3106,10 +3106,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48" s="6">
         <v>46196.708333333328</v>
@@ -3123,10 +3123,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="6">
         <v>46197.083333333328</v>
@@ -3344,10 +3344,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="6">
         <v>46199.791666666664</v>
@@ -3361,10 +3361,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
         <v>228</v>
-      </c>
-      <c r="C63" t="s">
-        <v>229</v>
       </c>
       <c r="D63" s="6">
         <v>46199.791666666664</v>
@@ -3446,10 +3446,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" s="6">
         <v>46200.875</v>
@@ -3463,10 +3463,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
         <v>240</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
       </c>
       <c r="D69" s="6">
         <v>46200.875</v>
@@ -3480,10 +3480,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s">
         <v>232</v>
-      </c>
-      <c r="C70" t="s">
-        <v>233</v>
       </c>
       <c r="D70" s="6">
         <v>46201.083333333328</v>
@@ -3497,10 +3497,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="6">
         <v>46201.083333333328</v>
@@ -3514,10 +3514,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="6">
         <v>46200.979166666664</v>
@@ -3531,10 +3531,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
         <v>236</v>
-      </c>
-      <c r="C73" t="s">
-        <v>237</v>
       </c>
       <c r="D73" s="6">
         <v>46200.979166666664</v>
@@ -3568,7 +3568,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75" s="6">
         <v>46202.854166666664</v>
@@ -3616,10 +3616,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
         <v>296</v>
-      </c>
-      <c r="C78" t="s">
-        <v>297</v>
       </c>
       <c r="D78" s="6">
         <v>46203.875</v>
@@ -3636,7 +3636,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D79" s="6">
         <v>46203.708333333328</v>
@@ -3653,7 +3653,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="6">
         <v>46204.041666666664</v>
@@ -3667,10 +3667,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
         <v>300</v>
-      </c>
-      <c r="C81" t="s">
-        <v>301</v>
       </c>
       <c r="D81" s="6">
         <v>46204.666666666664</v>
@@ -3687,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="6">
         <v>46205</v>
@@ -3704,7 +3704,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D83" s="6">
         <v>46204.833333333328</v>
@@ -3718,10 +3718,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" t="s">
         <v>304</v>
-      </c>
-      <c r="C84" t="s">
-        <v>305</v>
       </c>
       <c r="D84" s="6">
         <v>46205.958333333328</v>
@@ -3738,7 +3738,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="6">
         <v>46205.791666666664</v>
@@ -3755,7 +3755,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D86" s="6">
         <v>46206.125</v>
@@ -3769,7 +3769,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -3786,10 +3786,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
         <v>309</v>
-      </c>
-      <c r="C88" t="s">
-        <v>310</v>
       </c>
       <c r="D88" s="6">
         <v>46207.0625</v>
@@ -3820,10 +3820,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
         <v>311</v>
-      </c>
-      <c r="C90" t="s">
-        <v>312</v>
       </c>
       <c r="D90" s="6">
         <v>46207.875</v>
@@ -3837,10 +3837,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s">
         <v>313</v>
-      </c>
-      <c r="C91" t="s">
-        <v>314</v>
       </c>
       <c r="D91" s="6">
         <v>46207.708333333328</v>
@@ -3854,10 +3854,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" t="s">
         <v>315</v>
-      </c>
-      <c r="C92" t="s">
-        <v>316</v>
       </c>
       <c r="D92" s="6">
         <v>46208.833333333328</v>
@@ -3871,10 +3871,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
         <v>317</v>
-      </c>
-      <c r="C93" t="s">
-        <v>318</v>
       </c>
       <c r="D93" s="6">
         <v>46209</v>
@@ -3888,10 +3888,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>318</v>
+      </c>
+      <c r="C94" t="s">
         <v>319</v>
-      </c>
-      <c r="C94" t="s">
-        <v>320</v>
       </c>
       <c r="D94" s="6">
         <v>46209.791666666664</v>
@@ -3905,10 +3905,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" t="s">
         <v>321</v>
-      </c>
-      <c r="C95" t="s">
-        <v>322</v>
       </c>
       <c r="D95" s="6">
         <v>46210</v>
@@ -3922,10 +3922,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" t="s">
         <v>323</v>
-      </c>
-      <c r="C96" t="s">
-        <v>324</v>
       </c>
       <c r="D96" s="6">
         <v>46210.666666666664</v>
@@ -3939,10 +3939,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" t="s">
         <v>325</v>
-      </c>
-      <c r="C97" t="s">
-        <v>326</v>
       </c>
       <c r="D97" s="6">
         <v>46210.833333333328</v>
@@ -3956,10 +3956,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" t="s">
         <v>327</v>
-      </c>
-      <c r="C98" t="s">
-        <v>328</v>
       </c>
       <c r="D98" s="6">
         <v>46212.833333333328</v>
@@ -3973,10 +3973,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s">
         <v>329</v>
-      </c>
-      <c r="C99" t="s">
-        <v>330</v>
       </c>
       <c r="D99" s="6">
         <v>46213.791666666664</v>
@@ -3990,10 +3990,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" t="s">
         <v>331</v>
-      </c>
-      <c r="C100" t="s">
-        <v>332</v>
       </c>
       <c r="D100" s="6">
         <v>46214.875</v>
@@ -4007,10 +4007,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>332</v>
+      </c>
+      <c r="C101" t="s">
         <v>333</v>
-      </c>
-      <c r="C101" t="s">
-        <v>334</v>
       </c>
       <c r="D101" s="6">
         <v>46215.041666666664</v>
@@ -4024,10 +4024,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
         <v>335</v>
-      </c>
-      <c r="C102" t="s">
-        <v>336</v>
       </c>
       <c r="D102" s="6">
         <v>46217.791666666664</v>
@@ -4041,10 +4041,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" t="s">
         <v>337</v>
-      </c>
-      <c r="C103" t="s">
-        <v>338</v>
       </c>
       <c r="D103" s="6">
         <v>46218.791666666664</v>
@@ -4058,10 +4058,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" t="s">
         <v>360</v>
-      </c>
-      <c r="C104" t="s">
-        <v>361</v>
       </c>
       <c r="D104" s="6">
         <v>46221.875</v>
@@ -4075,10 +4075,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" t="s">
         <v>339</v>
-      </c>
-      <c r="C105" t="s">
-        <v>340</v>
       </c>
       <c r="D105" s="6">
         <v>46222.791666666664</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4136,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4160,7 +4160,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4176,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4184,7 +4184,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4208,7 +4208,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4224,7 +4224,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4232,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4240,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4248,7 +4248,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4256,7 +4256,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4264,7 +4264,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4272,7 +4272,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4280,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4288,7 +4288,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4304,7 +4304,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4320,7 +4320,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4336,7 +4336,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4344,7 +4344,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4368,76 +4368,76 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
@@ -4445,58 +4445,58 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4513,7 +4513,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -4643,24 +4643,24 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" t="s">
         <v>288</v>
-      </c>
-      <c r="J10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="J11" t="s">
         <v>290</v>
-      </c>
-      <c r="J11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4668,153 +4668,153 @@
         <v>91</v>
       </c>
       <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" t="s">
         <v>276</v>
-      </c>
-      <c r="J12" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" t="s">
         <v>293</v>
-      </c>
-      <c r="J13" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" t="s">
         <v>256</v>
-      </c>
-      <c r="J16" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18" t="s">
         <v>273</v>
-      </c>
-      <c r="J18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" t="s">
         <v>276</v>
-      </c>
-      <c r="J20" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J21" t="s">
         <v>278</v>
-      </c>
-      <c r="J21" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" t="s">
         <v>280</v>
-      </c>
-      <c r="J22" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
+        <v>281</v>
+      </c>
+      <c r="J23" t="s">
         <v>282</v>
-      </c>
-      <c r="J23" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
+        <v>283</v>
+      </c>
+      <c r="J24" t="s">
         <v>284</v>
-      </c>
-      <c r="J24" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J25" t="s">
         <v>286</v>
-      </c>
-      <c r="J25" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E21D59-11F2-6647-B74E-6B03465C0273}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4841,22 +4841,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>363</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>366</v>
-      </c>
-      <c r="F1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5136,10 +5136,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
         <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>228</v>
       </c>
       <c r="D18" s="6">
         <v>46189.791666666664</v>
@@ -5153,10 +5153,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" t="s">
         <v>229</v>
-      </c>
-      <c r="C19" t="s">
-        <v>230</v>
       </c>
       <c r="D19" s="6">
         <v>46189.916666666664</v>
@@ -5170,10 +5170,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
         <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
       </c>
       <c r="D20" s="6">
         <v>46190.041666666664</v>
@@ -5187,10 +5187,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
         <v>233</v>
-      </c>
-      <c r="C21" t="s">
-        <v>234</v>
       </c>
       <c r="D21" s="6">
         <v>46189.166666666664</v>
@@ -5204,10 +5204,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
         <v>241</v>
-      </c>
-      <c r="C22" t="s">
-        <v>242</v>
       </c>
       <c r="D22" s="6">
         <v>46190.958333333328</v>
@@ -5221,10 +5221,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" t="s">
-        <v>240</v>
       </c>
       <c r="D23" s="6">
         <v>46190.833333333328</v>
@@ -5238,10 +5238,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
         <v>235</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
       </c>
       <c r="D24" s="6">
         <v>46190.708333333328</v>
@@ -5255,10 +5255,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
       </c>
       <c r="D25" s="6">
         <v>46191.083333333328</v>
@@ -5544,10 +5544,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D42" s="6">
         <v>46196</v>
@@ -5561,10 +5561,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="6">
         <v>46195.875</v>
@@ -5578,10 +5578,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="6">
         <v>46195.708333333328</v>
@@ -5595,10 +5595,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="6">
         <v>46196.125</v>
@@ -5612,10 +5612,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" s="6">
         <v>46196.833333333328</v>
@@ -5629,10 +5629,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="6">
         <v>46196.958333333328</v>
@@ -5646,10 +5646,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D48" s="6">
         <v>46196.708333333328</v>
@@ -5663,10 +5663,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D49" s="6">
         <v>46197.083333333328</v>
@@ -5884,10 +5884,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="6">
         <v>46199.791666666664</v>
@@ -5901,10 +5901,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
         <v>228</v>
-      </c>
-      <c r="C63" t="s">
-        <v>229</v>
       </c>
       <c r="D63" s="6">
         <v>46199.791666666664</v>
@@ -5986,10 +5986,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" s="6">
         <v>46200.875</v>
@@ -6003,10 +6003,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
         <v>240</v>
-      </c>
-      <c r="C69" t="s">
-        <v>241</v>
       </c>
       <c r="D69" s="6">
         <v>46200.875</v>
@@ -6020,10 +6020,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" t="s">
         <v>232</v>
-      </c>
-      <c r="C70" t="s">
-        <v>233</v>
       </c>
       <c r="D70" s="6">
         <v>46201.083333333328</v>
@@ -6037,10 +6037,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="6">
         <v>46201.083333333328</v>
@@ -6054,10 +6054,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" s="6">
         <v>46200.979166666664</v>
@@ -6071,10 +6071,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
         <v>236</v>
-      </c>
-      <c r="C73" t="s">
-        <v>237</v>
       </c>
       <c r="D73" s="6">
         <v>46200.979166666664</v>
@@ -6108,7 +6108,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D75" s="6">
         <v>46202.854166666664</v>
@@ -6156,10 +6156,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
         <v>296</v>
-      </c>
-      <c r="C78" t="s">
-        <v>297</v>
       </c>
       <c r="D78" s="6">
         <v>46203.875</v>
@@ -6176,7 +6176,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D79" s="6">
         <v>46203.708333333328</v>
@@ -6193,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="6">
         <v>46204.041666666664</v>
@@ -6207,10 +6207,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
         <v>300</v>
-      </c>
-      <c r="C81" t="s">
-        <v>301</v>
       </c>
       <c r="D81" s="6">
         <v>46204.666666666664</v>
@@ -6227,7 +6227,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D82" s="6">
         <v>46205</v>
@@ -6244,7 +6244,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D83" s="6">
         <v>46204.833333333328</v>
@@ -6258,10 +6258,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" t="s">
         <v>304</v>
-      </c>
-      <c r="C84" t="s">
-        <v>305</v>
       </c>
       <c r="D84" s="6">
         <v>46205.958333333328</v>
@@ -6278,7 +6278,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D85" s="6">
         <v>46205.791666666664</v>
@@ -6295,7 +6295,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D86" s="6">
         <v>46206.125</v>
@@ -6309,7 +6309,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -6326,10 +6326,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
         <v>309</v>
-      </c>
-      <c r="C88" t="s">
-        <v>310</v>
       </c>
       <c r="D88" s="6">
         <v>46207.0625</v>
@@ -6360,10 +6360,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" t="s">
         <v>311</v>
-      </c>
-      <c r="C90" t="s">
-        <v>312</v>
       </c>
       <c r="D90" s="6">
         <v>46207.875</v>
@@ -6377,10 +6377,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s">
         <v>313</v>
-      </c>
-      <c r="C91" t="s">
-        <v>314</v>
       </c>
       <c r="D91" s="6">
         <v>46207.708333333328</v>
@@ -6394,10 +6394,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" t="s">
         <v>315</v>
-      </c>
-      <c r="C92" t="s">
-        <v>316</v>
       </c>
       <c r="D92" s="6">
         <v>46208.833333333328</v>
@@ -6411,10 +6411,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
         <v>317</v>
-      </c>
-      <c r="C93" t="s">
-        <v>318</v>
       </c>
       <c r="D93" s="6">
         <v>46209</v>
@@ -6428,10 +6428,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>318</v>
+      </c>
+      <c r="C94" t="s">
         <v>319</v>
-      </c>
-      <c r="C94" t="s">
-        <v>320</v>
       </c>
       <c r="D94" s="6">
         <v>46209.791666666664</v>
@@ -6445,10 +6445,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" t="s">
         <v>321</v>
-      </c>
-      <c r="C95" t="s">
-        <v>322</v>
       </c>
       <c r="D95" s="6">
         <v>46210</v>
@@ -6462,10 +6462,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" t="s">
         <v>323</v>
-      </c>
-      <c r="C96" t="s">
-        <v>324</v>
       </c>
       <c r="D96" s="6">
         <v>46210.666666666664</v>
@@ -6479,10 +6479,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" t="s">
         <v>325</v>
-      </c>
-      <c r="C97" t="s">
-        <v>326</v>
       </c>
       <c r="D97" s="6">
         <v>46210.833333333328</v>
@@ -6496,10 +6496,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" t="s">
         <v>327</v>
-      </c>
-      <c r="C98" t="s">
-        <v>328</v>
       </c>
       <c r="D98" s="6">
         <v>46212.833333333328</v>
@@ -6513,10 +6513,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s">
         <v>329</v>
-      </c>
-      <c r="C99" t="s">
-        <v>330</v>
       </c>
       <c r="D99" s="6">
         <v>46213.791666666664</v>
@@ -6530,10 +6530,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" t="s">
         <v>331</v>
-      </c>
-      <c r="C100" t="s">
-        <v>332</v>
       </c>
       <c r="D100" s="6">
         <v>46214.875</v>
@@ -6547,10 +6547,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>332</v>
+      </c>
+      <c r="C101" t="s">
         <v>333</v>
-      </c>
-      <c r="C101" t="s">
-        <v>334</v>
       </c>
       <c r="D101" s="6">
         <v>46215.041666666664</v>
@@ -6564,10 +6564,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
         <v>335</v>
-      </c>
-      <c r="C102" t="s">
-        <v>336</v>
       </c>
       <c r="D102" s="6">
         <v>46217.791666666664</v>
@@ -6581,10 +6581,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" t="s">
         <v>337</v>
-      </c>
-      <c r="C103" t="s">
-        <v>338</v>
       </c>
       <c r="D103" s="6">
         <v>46218.791666666664</v>
@@ -6598,10 +6598,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" t="s">
         <v>360</v>
-      </c>
-      <c r="C104" t="s">
-        <v>361</v>
       </c>
       <c r="D104" s="6">
         <v>46221.875</v>
@@ -6615,10 +6615,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" t="s">
         <v>339</v>
-      </c>
-      <c r="C105" t="s">
-        <v>340</v>
       </c>
       <c r="D105" s="6">
         <v>46222.791666666664</v>
